--- a/scanner.xlsx
+++ b/scanner.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Path</t>
   </si>
@@ -41,6 +41,84 @@
   </si>
   <si>
     <t>TimeStamp</t>
+  </si>
+  <si>
+    <t>./DATABASE/CRYPTO Lorenzo Reyes lreyes@udesa.edu.ar 3000 MinVaR 2022-09-26.xlsx</t>
+  </si>
+  <si>
+    <t>./DATABASE/CRYPTO Nicolas Lalicata nicolaughing@gmail.com 1000000 SharpeRatio 2022-10-03.xlsx</t>
+  </si>
+  <si>
+    <t>./DATABASE/CRYPTO Jiashu Zhang jiashu@umich.edu 1000000 SharpeRatio 2022-09-27.xlsx</t>
+  </si>
+  <si>
+    <t>./DATABASE/CRYPTO Yash Kaiwar ykaiwar@umich.edu 100000 SharpeRatio 2022-09-27.xlsx</t>
+  </si>
+  <si>
+    <t>./DATABASE/CRYPTO Nicolas Costanza nicolasantoniocostanza@gmail.com 10000 SharpeRatio 2022-10-05.xlsx</t>
+  </si>
+  <si>
+    <t>CRYPTO</t>
+  </si>
+  <si>
+    <t>Lorenzo Reyes</t>
+  </si>
+  <si>
+    <t>Nicolas Lalicata</t>
+  </si>
+  <si>
+    <t>Jiashu Zhang</t>
+  </si>
+  <si>
+    <t>Yash Kaiwar</t>
+  </si>
+  <si>
+    <t>Nicolas Costanza</t>
+  </si>
+  <si>
+    <t>lreyes@udesa.edu.ar</t>
+  </si>
+  <si>
+    <t>nicolaughing@gmail.com</t>
+  </si>
+  <si>
+    <t>jiashu@umich.edu</t>
+  </si>
+  <si>
+    <t>ykaiwar@umich.edu</t>
+  </si>
+  <si>
+    <t>nicolasantoniocostanza@gmail.com</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>MinVaR</t>
+  </si>
+  <si>
+    <t>SharpeRatio</t>
+  </si>
+  <si>
+    <t>2022-09-26</t>
+  </si>
+  <si>
+    <t>2022-10-03</t>
+  </si>
+  <si>
+    <t>2022-09-27</t>
+  </si>
+  <si>
+    <t>2022-10-05</t>
   </si>
 </sst>
 </file>
@@ -398,13 +476,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:J1"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,6 +509,166 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/scanner.xlsx
+++ b/scanner.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>Path</t>
   </si>
@@ -43,19 +43,19 @@
     <t>TimeStamp</t>
   </si>
   <si>
-    <t>./DATABASE/CRYPTO Lorenzo Reyes lreyes@udesa.edu.ar 3000 MinVaR 2022-09-26.xlsx</t>
-  </si>
-  <si>
-    <t>./DATABASE/CRYPTO Nicolas Lalicata nicolaughing@gmail.com 1000000 SharpeRatio 2022-10-03.xlsx</t>
-  </si>
-  <si>
-    <t>./DATABASE/CRYPTO Jiashu Zhang jiashu@umich.edu 1000000 SharpeRatio 2022-09-27.xlsx</t>
-  </si>
-  <si>
-    <t>./DATABASE/CRYPTO Yash Kaiwar ykaiwar@umich.edu 100000 SharpeRatio 2022-09-27.xlsx</t>
-  </si>
-  <si>
-    <t>./DATABASE/CRYPTO Nicolas Costanza nicolasantoniocostanza@gmail.com 10000 SharpeRatio 2022-10-05.xlsx</t>
+    <t>./DATABASE/CRYPTO Lorenzo Reyes lreyes@udesa.edu.ar 3200 MonteVaR 2022-10-18.xlsx</t>
+  </si>
+  <si>
+    <t>./DATABASE/CRYPTO Lorenzo Reyes lreyes@udesa.edu.ar 200000 MonteVaR 2022-10-08.xlsx</t>
+  </si>
+  <si>
+    <t>./DATABASE/CRYPTO Lorenzo Reyes lreyes@udesa.edu.ar 2985 MonteVaR 2022-10-08.xlsx</t>
+  </si>
+  <si>
+    <t>./DATABASE/CRYPTO Lorenzo Reyes lreyes@udesa.edu.ar 3200 MonteSharpe 2022-11-05.xlsx</t>
+  </si>
+  <si>
+    <t>./DATABASE/CRYPTO Peko Muni pedrolandriel@live.com.ar 1000000 SharpeRatio 2022-10-14.xlsx</t>
   </si>
   <si>
     <t>CRYPTO</t>
@@ -64,61 +64,46 @@
     <t>Lorenzo Reyes</t>
   </si>
   <si>
-    <t>Nicolas Lalicata</t>
-  </si>
-  <si>
-    <t>Jiashu Zhang</t>
-  </si>
-  <si>
-    <t>Yash Kaiwar</t>
-  </si>
-  <si>
-    <t>Nicolas Costanza</t>
+    <t>Peko Muni</t>
   </si>
   <si>
     <t>lreyes@udesa.edu.ar</t>
   </si>
   <si>
-    <t>nicolaughing@gmail.com</t>
-  </si>
-  <si>
-    <t>jiashu@umich.edu</t>
-  </si>
-  <si>
-    <t>ykaiwar@umich.edu</t>
-  </si>
-  <si>
-    <t>nicolasantoniocostanza@gmail.com</t>
-  </si>
-  <si>
-    <t>3000</t>
+    <t>pedrolandriel@live.com.ar</t>
+  </si>
+  <si>
+    <t>3200</t>
+  </si>
+  <si>
+    <t>200000</t>
+  </si>
+  <si>
+    <t>2985</t>
   </si>
   <si>
     <t>1000000</t>
   </si>
   <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>MinVaR</t>
+    <t>MonteVaR</t>
+  </si>
+  <si>
+    <t>MonteSharpe</t>
   </si>
   <si>
     <t>SharpeRatio</t>
   </si>
   <si>
-    <t>2022-09-26</t>
-  </si>
-  <si>
-    <t>2022-10-03</t>
-  </si>
-  <si>
-    <t>2022-09-27</t>
-  </si>
-  <si>
-    <t>2022-10-05</t>
+    <t>2022-10-18</t>
+  </si>
+  <si>
+    <t>2022-10-08</t>
+  </si>
+  <si>
+    <t>2022-11-05</t>
+  </si>
+  <si>
+    <t>2022-10-14</t>
   </si>
 </sst>
 </file>
@@ -525,13 +510,13 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -540,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -554,16 +539,16 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -572,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -586,16 +571,16 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -604,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -618,16 +603,16 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -636,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -650,16 +635,16 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -668,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
